--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNU_HCMUS - 2022_23 - Term III\Statistical_ML_CSC15004\Research-Transformer-and-fine_tune-GPT2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AF4E88-ED4C-4EFB-849A-6CA7F61244F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="AV0jeqmOUVEoD5Y/LVFNIyOS1Vh0pC8u9p8KFwFgWF8="/>
@@ -39,69 +48,6 @@
     <t>04. Report</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">&gt; Hiểu kiến trúc chung transformer/attention
-&gt; Đọc, hiểu paper: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t>Transformer</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t>GPT</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t>GPT2</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">
-&gt; Hiểu dataset:</t>
-    </r>
-  </si>
-  <si>
     <t>Báo cáo nhanh kiến thức đã tìm hiểu được vào t4, 7</t>
   </si>
   <si>
@@ -127,59 +73,150 @@
     <r>
       <rPr>
         <b/>
-        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">Report </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>here</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">&gt; Hiểu kiến trúc chung transformer/attention
+&gt; Đọc, hiểu paper: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Transformer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>GPT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>GPT2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+&gt; Hiểu dataset: wikitext2</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="9">
@@ -187,7 +224,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -233,24 +270,41 @@
     </fill>
   </fills>
   <borders count="14">
-    <border/>
     <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="double">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -260,6 +314,8 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -268,9 +324,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -278,6 +336,8 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -286,6 +346,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -300,12 +363,16 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -317,15 +384,19 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -335,6 +406,8 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -343,73 +416,76 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="16" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="7" fontId="3" numFmtId="16" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="8" fillId="7" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -599,301 +675,306 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="38.14"/>
-    <col customWidth="1" min="3" max="3" width="41.14"/>
-    <col customWidth="1" min="4" max="4" width="50.14"/>
-    <col customWidth="1" min="5" max="5" width="12.71"/>
-    <col customWidth="1" min="6" max="6" width="19.29"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.109375" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" customWidth="1"/>
+    <col min="4" max="4" width="50.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A2" s="13"/>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="6">
-        <v>45138.0</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A5" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A6" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A7" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A8" s="2">
+        <v>45143</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A9" s="2">
+        <v>45144</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="6">
-        <v>45139.0</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="6">
-        <v>45140.0</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="6">
-        <v>45141.0</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="6">
-        <v>45142.0</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="6">
-        <v>45143.0</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="6">
-        <v>45144.0</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="14" t="s">
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A10" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A11" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A12" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A13" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A14" s="2">
+        <v>45149</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="6">
-        <v>45145.0</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="6">
-        <v>45146.0</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="6">
-        <v>45147.0</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="6">
-        <v>45148.0</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="6">
-        <v>45149.0</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="16" t="s">
+      <c r="E14" s="9"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A15" s="2">
+        <v>45150</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A16" s="2">
+        <v>45151</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A17" s="2">
+        <v>45152</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="6">
-        <v>45150.0</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="6">
-        <v>45151.0</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="6">
-        <v>45152.0</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="17" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A18" s="2">
+        <v>45153</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A19" s="2">
+        <v>45154</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A20" s="2">
+        <v>45155</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A21" s="2">
+        <v>45156</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="6">
-        <v>45153.0</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="6">
-        <v>45154.0</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="6">
-        <v>45155.0</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="6">
-        <v>45156.0</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="19" t="s">
+    </row>
+    <row r="22" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A22" s="2">
+        <v>45157</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A23" s="2">
+        <v>45158</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A24" s="5">
+        <v>45159</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:6" ht="14.25" customHeight="1">
+      <c r="B26" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="6">
-        <v>45157.0</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="6">
-        <v>45158.0</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="20">
-        <v>45159.0</v>
-      </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="18"/>
-    </row>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="B26" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1876,12 +1957,10 @@
     <mergeCell ref="F21:F24"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B3"/>
-    <hyperlink r:id="rId2" ref="B26"/>
+    <hyperlink ref="B3" r:id="rId1" display="&gt; Hiểu kiến trúc chung transformer/attention_x000a_&gt; Đọc, hiểu paper: Transformer, GPT, GPT2_x000a_&gt; Hiểu dataset:" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B26" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId3"/>
 </worksheet>
 </file>